--- a/Mifos Automation Excels/Loan Product/4915-CollectInterestUpfrontForSingleTranche.xlsx
+++ b/Mifos Automation Excels/Loan Product/4915-CollectInterestUpfrontForSingleTranche.xlsx
@@ -192,10 +192,10 @@
     <t>4915-CollectInterestUpfrontForSingleTranche</t>
   </si>
   <si>
-    <t>RepaymentStrategy</t>
-  </si>
-  <si>
     <t>Principal, Interest, Penalties, Fees Order</t>
+  </si>
+  <si>
+    <t>repaymentstrategy</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,10 +712,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
